--- a/optima/cascade-simple.xlsx
+++ b/optima/cascade-simple.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
     <sheet name="Transitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Transition Rates" sheetId="3" r:id="rId3"/>
+    <sheet name="Transition Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Code Label</t>
   </si>
@@ -112,6 +112,93 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Sheet Label</t>
+  </si>
+  <si>
+    <t>Vaccination Rate</t>
+  </si>
+  <si>
+    <t>Infection Rate (Vaccinated)</t>
+  </si>
+  <si>
+    <t>LTBI Treatment Uptake Rate</t>
+  </si>
+  <si>
+    <t>LTBI-TB Progression Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>LTBI Treatment Abandonment Rate</t>
+  </si>
+  <si>
+    <t>LTBI-TB Progression Rate (Treated)</t>
+  </si>
+  <si>
+    <t>LTBI Treatment Success Rate</t>
+  </si>
+  <si>
+    <t>TB Treatment Uptake Rate</t>
+  </si>
+  <si>
+    <t>TB Death Rate (Untreated)</t>
+  </si>
+  <si>
+    <t>TB Treatment Abandonment Rate</t>
+  </si>
+  <si>
+    <t>TB Treatment Success Rate</t>
+  </si>
+  <si>
+    <t>TB Death Rate (Treated)</t>
+  </si>
+  <si>
+    <t>Reinfection Rate (Recovered)</t>
+  </si>
+  <si>
+    <t>Infection Rate (Susceptible)</t>
+  </si>
+  <si>
+    <t>v_rate</t>
+  </si>
+  <si>
+    <t>infs_rate</t>
+  </si>
+  <si>
+    <t>infv_rate</t>
+  </si>
+  <si>
+    <t>ltyes_rate</t>
+  </si>
+  <si>
+    <t>ltno_rate</t>
+  </si>
+  <si>
+    <t>ltsuc_rate</t>
+  </si>
+  <si>
+    <t>ltup_rate</t>
+  </si>
+  <si>
+    <t>lttp_rate</t>
+  </si>
+  <si>
+    <t>acyes_rate</t>
+  </si>
+  <si>
+    <t>acno_rate</t>
+  </si>
+  <si>
+    <t>acud_rate</t>
+  </si>
+  <si>
+    <t>acsuc_rate</t>
+  </si>
+  <si>
+    <t>actd_rate</t>
+  </si>
+  <si>
+    <t>infr_rate</t>
   </si>
 </sst>
 </file>
@@ -174,8 +261,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,85 +572,85 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -574,39 +663,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="5.77734375" customWidth="1"/>
+    <col min="1" max="9" width="5.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -614,83 +703,53 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
@@ -699,14 +758,9 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
@@ -718,29 +772,14 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,12 +789,186 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/optima/cascade-simple.xlsx
+++ b/optima/cascade-simple.xlsx
@@ -114,9 +114,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Sheet Label</t>
-  </si>
-  <si>
     <t>Vaccination Rate</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>infr_rate</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
 </sst>
 </file>
@@ -792,19 +792,19 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -818,10 +818,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -829,10 +829,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -840,10 +840,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -851,10 +851,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -862,10 +862,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -873,10 +873,10 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -884,10 +884,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -895,10 +895,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -906,10 +906,10 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -917,10 +917,10 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -928,10 +928,10 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -939,10 +939,10 @@
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -950,10 +950,10 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -961,10 +961,10 @@
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/optima/cascade-simple.xlsx
+++ b/optima/cascade-simple.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
-    <sheet name="Transitions" sheetId="2" r:id="rId2"/>
-    <sheet name="Transition Parameters" sheetId="3" r:id="rId3"/>
+    <sheet name="Cascade Characteristics" sheetId="4" r:id="rId2"/>
+    <sheet name="Transitions" sheetId="2" r:id="rId3"/>
+    <sheet name="Transition Parameters" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Code Label</t>
   </si>
@@ -199,6 +200,24 @@
   </si>
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>Includes</t>
+  </si>
+  <si>
+    <t>lt_inf</t>
+  </si>
+  <si>
+    <t>ac_inf</t>
+  </si>
+  <si>
+    <t>Latent Infections</t>
+  </si>
+  <si>
+    <t>Active Infections</t>
+  </si>
+  <si>
+    <t>Denominator</t>
   </si>
 </sst>
 </file>
@@ -572,7 +591,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,6 +679,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -787,11 +869,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/optima/cascade-simple.xlsx
+++ b/optima/cascade-simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/optima/cascade-simple.xlsx
+++ b/optima/cascade-simple.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="9528" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
-    <sheet name="Cascade Characteristics" sheetId="4" r:id="rId2"/>
-    <sheet name="Transitions" sheetId="2" r:id="rId3"/>
-    <sheet name="Transition Parameters" sheetId="3" r:id="rId4"/>
+    <sheet name="Transitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -199,9 +199,6 @@
     <t>infr_rate</t>
   </si>
   <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>Includes</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   </si>
   <si>
     <t>Denominator</t>
+  </si>
+  <si>
+    <t>Transition Tag</t>
   </si>
 </sst>
 </file>
@@ -680,6 +680,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="9" width="5.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -702,18 +830,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -724,10 +852,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -738,134 +866,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="9" width="5.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -873,20 +873,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
